--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SAF.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SAF.xlsx
@@ -475,7 +475,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
@@ -570,10 +570,10 @@
         <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -800,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -857,7 +857,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -918,10 +918,10 @@
         <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -937,10 +937,10 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E26" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -996,10 +996,10 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
@@ -1017,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1060,7 +1060,7 @@
         <v>73</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -1137,10 +1137,10 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -1178,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" t="n">
         <v>61</v>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="D45" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" t="n">
         <v>41</v>

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SAF.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SAF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
